--- a/Analysis/Optimised Implementation/Optimised_Version_Analysis.xlsx
+++ b/Analysis/Optimised Implementation/Optimised_Version_Analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantas\Desktop\ruler2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantas\Desktop\ruler2\Analysis\Optimised Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="855" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="855" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="All in one" sheetId="10" r:id="rId1"/>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">With diferent Items </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Open Close Random</t>
   </si>
   <si>
     <t>Open Close Worst</t>
@@ -53,28 +47,22 @@
     <t>Lottery Worst</t>
   </si>
   <si>
-    <t>With only one Item</t>
+    <t>Optimised Random</t>
   </si>
   <si>
-    <t>Interface</t>
+    <t>Optimized Random</t>
   </si>
   <si>
-    <t>Auction</t>
+    <t>Optimised One Item</t>
   </si>
   <si>
-    <t>ExactlyOneSuccess</t>
+    <t xml:space="preserve">Optimised </t>
   </si>
   <si>
-    <t>HasNext</t>
+    <t>Optimised</t>
   </si>
   <si>
-    <t>StateMachine</t>
-  </si>
-  <si>
-    <t>Unsafe Map Iterator Worst</t>
-  </si>
-  <si>
-    <t>UnsafeMapIterator Random</t>
+    <t>Optimised Worst</t>
   </si>
 </sst>
 </file>
@@ -172,9 +160,6 @@
               <c:f>Auction!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auction</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -253,39 +238,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>74.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>290.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>443.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1481.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1933.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3866.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7908.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17004.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45346</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>115314.75</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -300,7 +252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ExactlyOneSuccess</c:v>
+                  <c:v>Optimised </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,40 +333,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>328</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>663</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>999</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2920</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6103</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8576</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21943</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49414</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96999</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>265377</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,7 +382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HasNext</c:v>
+                  <c:v>Optimised</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -511,40 +463,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>886</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1809</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4219</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7652</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16759</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41673</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108181</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>347403</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,7 +512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Interface</c:v>
+                  <c:v>Optimised</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -641,40 +593,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>133</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>477</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1434</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2350</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4220</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8593</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22026</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56580</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131359</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>960431</c:v>
+                  <c:v>1539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +890,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>StateMachine</c:v>
+                  <c:v>Optimised</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1025,7 +977,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1037,28 +989,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>423</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1605</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3065</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4583</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UnsafeMapIterator Random</c:v>
+                  <c:v>Optimised Random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1161,40 +1113,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>794</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1599</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3231</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5968</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16342</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28867</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63580</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114710</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>306785</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>480344</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1138816</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unsafe Map Iterator Worst</c:v>
+                  <c:v>Optimised Worst</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1297,22 +1249,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>475</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>887</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10696</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47733</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218228</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,7 +1280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Open Close Random</c:v>
+                  <c:v>Optimised Random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,37 +1322,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>685</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1194</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2202</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3432</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35036</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39698</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142698</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>955374</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,7 +1405,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CloseOpen!$C$2:$C$12</c:f>
+              <c:f>CloseOpen!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1490,11 +1442,2148 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1097868944"/>
-        <c:axId val="-1097868400"/>
+        <c:axId val="-1643202208"/>
+        <c:axId val="-1643201664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1097868944"/>
+        <c:axId val="-1643202208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Events</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1643201664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1643201664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1643202208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnsafeMapIterator!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimised Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnsafeMapIterator!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimised Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1455958560"/>
+        <c:axId val="-1455958016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1455958560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number Of Events</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1455958016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1455958016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1455958560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CloseOpen!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimised Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CloseOpen!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CloseOpen!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CloseOpen!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open Close Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CloseOpen!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CloseOpen!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1643198944"/>
+        <c:axId val="-1643198400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1643198944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number Of Events</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1643198400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1643198400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1643198944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BidSellDelete!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimized Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BidSellDelete!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BidSellDelete!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BidSellDelete!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimised One Item</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BidSellDelete!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BidSellDelete!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1643197312"/>
+        <c:axId val="-1643212544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1643197312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1643212544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1643212544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1643197312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Auction!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Auction!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Auction!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1455971072"/>
+        <c:axId val="-1455969440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1455971072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +3682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097868400"/>
+        <c:crossAx val="-1455969440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1601,7 +3690,439 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1097868400"/>
+        <c:axId val="-1455969440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1455971072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExactlyOneSuccess!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimised </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ExactlyOneSuccess!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExactlyOneSuccess!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1455961280"/>
+        <c:axId val="-1455962912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1455961280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Nuber</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1455962912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1455962912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +4234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097868944"/>
+        <c:crossAx val="-1455961280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1725,38 +4246,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1794,7 +4283,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1819,11 +4308,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>UnsafeMapIterator!$B$1</c:f>
+              <c:f>HasNext!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UnsafeMapIterator Random</c:v>
+                  <c:v>Optimised</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1854,7 +4343,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>UnsafeMapIterator!$A$2:$A$13</c:f>
+              <c:f>HasNext!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1899,157 +4388,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UnsafeMapIterator!$B$2:$B$13</c:f>
+              <c:f>HasNext!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>794</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1599</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3231</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5968</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16342</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28867</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63580</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114710</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>306785</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>480344</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1138816</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>UnsafeMapIterator!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unsafe Map Iterator Worst</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>UnsafeMapIterator!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>204800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>UnsafeMapIterator!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>887</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47733</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>218228</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,11 +4443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1046924208"/>
-        <c:axId val="-1046923664"/>
+        <c:axId val="-1455966720"/>
+        <c:axId val="-1455968352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1046924208"/>
+        <c:axId val="-1455966720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +4474,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number Of Events</a:t>
+                  <a:t>Number of Events</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2169,7 +4546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046923664"/>
+        <c:crossAx val="-1455968352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +4554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046923664"/>
+        <c:axId val="-1455968352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +4661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046924208"/>
+        <c:crossAx val="-1455966720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,38 +4673,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2365,7 +4710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2390,11 +4735,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CloseOpen!$B$1</c:f>
+              <c:f>Interface!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Open Close Random</c:v>
+                  <c:v>Optimised</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2425,10 +4770,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CloseOpen!$A$2:$A$17</c:f>
+              <c:f>Interface!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2461,157 +4806,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CloseOpen!$B$2:$B$17</c:f>
+              <c:f>Interface!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>685</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1194</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2202</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3432</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35036</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39698</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142698</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>955374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CloseOpen!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Open Close Worst</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloseOpen!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloseOpen!$C$2:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1264</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3390</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63167</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>333880</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>939267</c:v>
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,11 +4870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1097867312"/>
-        <c:axId val="-1097866768"/>
+        <c:axId val="-1455966176"/>
+        <c:axId val="-1455965632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1097867312"/>
+        <c:axId val="-1455966176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,6 +4902,536 @@
                 <a:r>
                   <a:rPr lang="en-GB"/>
                   <a:t>Number Of Events</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1455965632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1455965632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1455966176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11959111092907924"/>
+          <c:y val="3.3677760961665207E-2"/>
+          <c:w val="0.8630703541771193"/>
+          <c:h val="0.76034162797862559"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lottery!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lottery Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lottery!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lottery!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>710273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lottery!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lottery Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lottery!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lottery!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2714054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1455960192"/>
+        <c:axId val="-1455959648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1455960192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Events</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2730,7 +5502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097866768"/>
+        <c:crossAx val="-1455959648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +5510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1097866768"/>
+        <c:axId val="-1455959648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,2846 +5616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097867312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BidSellDelete!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With diferent Items </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BidSellDelete!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BidSellDelete!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>220.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>172.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>647.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1592</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2361.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5100.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10096.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24381.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52711</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116425.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BidSellDelete!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>With only one Item</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BidSellDelete!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BidSellDelete!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>149.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1647</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49006.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1097879280"/>
-        <c:axId val="-1097876016"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1097879280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1097876016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1097876016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time,ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1097879280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Auction!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auction</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Auction!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Auction!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>74.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>290.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>443.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1481.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1933.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3866.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7908.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17004.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45346</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>115314.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1046917680"/>
-        <c:axId val="-1046916048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1046917680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Events</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046916048"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1046916048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time, ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046917680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExactlyOneSuccess!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ExactlyOneSuccess</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ExactlyOneSuccess!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51202</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>204800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExactlyOneSuccess!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2920</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8576</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21943</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49414</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>265377</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1046923120"/>
-        <c:axId val="-1046914960"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1046923120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Nuber</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046914960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1046914960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> ms</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046923120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>HasNext!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HasNext</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>HasNext!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>204800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>HasNext!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>886</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1809</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16759</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41673</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>108181</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>347403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1046919856"/>
-        <c:axId val="-1046914416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1046919856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Events</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046914416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1046914416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time, ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046919856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Interface!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Interface!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>204800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Interface!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4220</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8593</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22026</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>56580</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>131359</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>960431</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1046918224"/>
-        <c:axId val="-1046922032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1046918224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number Of Events</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046922032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1046922032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time, ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046918224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11959111092907924"/>
-          <c:y val="3.3677760961665207E-2"/>
-          <c:w val="0.8630703541771193"/>
-          <c:h val="0.76034162797862559"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Lottery!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lottery Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Lottery!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>204800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Lottery!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2635</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4531</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11541</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56560</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>132837</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>294681</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>710273</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Lottery!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lottery Worst</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Lottery!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>204800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Lottery!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1179</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22981</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>104155</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>472217</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2714054</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1046926384"/>
-        <c:axId val="-1046917136"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1046926384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Events</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046917136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1046917136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time, ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1046926384"/>
+        <c:crossAx val="-1455960192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5792,7 +5725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>StateMachine</c:v>
+                  <c:v>Optimised</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5873,7 +5806,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5885,28 +5818,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>423</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1605</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3065</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4583</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5923,11 +5856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1046926928"/>
-        <c:axId val="-1046920944"/>
+        <c:axId val="-1455969984"/>
+        <c:axId val="-1455964000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1046926928"/>
+        <c:axId val="-1455969984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6026,7 +5959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046920944"/>
+        <c:crossAx val="-1455964000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6034,7 +5967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046920944"/>
+        <c:axId val="-1455964000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6141,7 +6074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046926928"/>
+        <c:crossAx val="-1455969984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12289,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12303,10 +12236,10 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -12314,10 +12247,10 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12325,10 +12258,10 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>794</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>887</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12336,10 +12269,10 @@
         <v>400</v>
       </c>
       <c r="B4">
-        <v>1599</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2828</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12347,10 +12280,10 @@
         <v>800</v>
       </c>
       <c r="B5">
-        <v>3231</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>10696</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12358,10 +12291,10 @@
         <v>1600</v>
       </c>
       <c r="B6">
-        <v>5968</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>47733</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12369,10 +12302,10 @@
         <v>3200</v>
       </c>
       <c r="B7">
-        <v>16342</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>218228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12380,10 +12313,10 @@
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>28867</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12391,10 +12324,10 @@
         <v>12800</v>
       </c>
       <c r="B9">
-        <v>63580</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12402,10 +12335,10 @@
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>114710</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12413,10 +12346,10 @@
         <v>51200</v>
       </c>
       <c r="B11">
-        <v>306785</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12424,10 +12357,10 @@
         <v>102400</v>
       </c>
       <c r="B12">
-        <v>480344</v>
+        <v>990</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12435,40 +12368,40 @@
         <v>204800</v>
       </c>
       <c r="B13">
-        <v>1138816</v>
+        <v>2026</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12482,7 +12415,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12492,171 +12425,181 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>1264</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>71</v>
-      </c>
-      <c r="C3">
-        <v>3390</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>13869</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>800</v>
       </c>
       <c r="B5">
-        <v>685</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>63167</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1600</v>
       </c>
       <c r="B6">
-        <v>1194</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>333880</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3200</v>
       </c>
       <c r="B7">
-        <v>2202</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>939267</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>3432</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12800</v>
       </c>
       <c r="B9">
-        <v>35036</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>39698</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>356</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>51200</v>
       </c>
       <c r="B11">
-        <v>142698</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>367</v>
+      </c>
+      <c r="C11">
+        <v>1150</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>102400</v>
       </c>
       <c r="B12">
-        <v>955374</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>736</v>
+      </c>
+      <c r="C12">
+        <v>3451</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
@@ -12664,7 +12607,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -12672,7 +12615,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -12680,75 +12623,94 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12763,7 +12725,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12775,7 +12737,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -12790,97 +12752,58 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B14" si="0">SUM(D2:G2) / 4</f>
-        <v>220.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>81.25</v>
-      </c>
-      <c r="D2" s="2">
-        <v>425</v>
-      </c>
-      <c r="E2" s="2">
-        <v>200</v>
-      </c>
-      <c r="F2" s="2">
-        <v>130</v>
-      </c>
-      <c r="G2" s="2">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>172.25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>250</v>
-      </c>
-      <c r="E3" s="2">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="D4" s="2">
-        <v>349</v>
-      </c>
-      <c r="E4" s="2">
-        <v>295</v>
-      </c>
-      <c r="F4" s="2">
-        <v>316</v>
-      </c>
-      <c r="G4" s="2">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>800</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>647.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>705</v>
-      </c>
-      <c r="E5" s="2">
-        <v>639</v>
-      </c>
-      <c r="F5" s="2">
-        <v>624</v>
-      </c>
-      <c r="G5" s="2">
-        <v>622</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000</v>
       </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
       <c r="C6">
-        <v>149.75</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -12892,73 +12815,43 @@
         <v>1600</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1592</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2134</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1650</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1384</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3200</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>2361.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2327</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2324</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2322</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2473</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6400</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>5100.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5545</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5085</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4868</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4904</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
-      <c r="B10">
-        <v>7500</v>
-      </c>
       <c r="C10">
-        <v>1647</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -12970,87 +12863,48 @@
         <v>12800</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>10096.5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10141</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10243</v>
-      </c>
-      <c r="F11" s="2">
-        <v>9995</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10007</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25600</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>24381.5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>24799</v>
-      </c>
-      <c r="E12" s="2">
-        <v>23273</v>
-      </c>
-      <c r="F12" s="2">
-        <v>25125</v>
-      </c>
-      <c r="G12" s="2">
-        <v>24329</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51200</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>52711</v>
-      </c>
-      <c r="D13" s="2">
-        <v>53117</v>
-      </c>
-      <c r="E13" s="2">
-        <v>52682</v>
-      </c>
-      <c r="F13" s="2">
-        <v>52102</v>
-      </c>
-      <c r="G13" s="2">
-        <v>52943</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100000</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>116425.75</v>
-      </c>
       <c r="C14">
-        <v>49006.5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>118920</v>
-      </c>
-      <c r="E14" s="2">
-        <v>115436</v>
-      </c>
-      <c r="F14" s="2">
-        <v>117245</v>
-      </c>
-      <c r="G14" s="2">
-        <v>114102</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
@@ -13097,248 +12951,114 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE(C2:F2)</f>
-        <v>74.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2">
-        <v>84</v>
-      </c>
-      <c r="E2" s="2">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2">
-        <v>66</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">AVERAGE(C3:F3)</f>
-        <v>194.25</v>
-      </c>
-      <c r="C3" s="2">
-        <v>298</v>
-      </c>
-      <c r="D3" s="2">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2">
-        <v>126</v>
-      </c>
-      <c r="F3" s="2">
-        <v>118</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>290.75</v>
-      </c>
-      <c r="C4" s="2">
-        <v>272</v>
-      </c>
-      <c r="D4" s="2">
-        <v>299</v>
-      </c>
-      <c r="E4" s="2">
-        <v>273</v>
-      </c>
-      <c r="F4" s="2">
-        <v>319</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>800</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>443.25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>463</v>
-      </c>
-      <c r="D5" s="2">
-        <v>434</v>
-      </c>
-      <c r="E5" s="2">
-        <v>435</v>
-      </c>
-      <c r="F5" s="2">
-        <v>441</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1600</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1481.25</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2072</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1326</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1212</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1315</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3200</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1933.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1939</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1895</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1945</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1955</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6400</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>3866.75</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3801</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3776</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3787</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4103</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12800</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7908.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8421</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7775</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7708</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7730</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25600</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>17004.75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>16618</v>
-      </c>
-      <c r="D10" s="2">
-        <v>16853</v>
-      </c>
-      <c r="E10" s="2">
-        <v>17398</v>
-      </c>
-      <c r="F10" s="2">
-        <v>17150</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>51200</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>45346</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43952</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43317</v>
-      </c>
-      <c r="E11" s="2">
-        <v>48488</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45627</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>51200*2</f>
         <v>102400</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>115314.75</v>
-      </c>
-      <c r="C12" s="2">
-        <v>106991</v>
-      </c>
-      <c r="D12" s="2">
-        <v>128407</v>
-      </c>
-      <c r="E12" s="2">
-        <v>115446</v>
-      </c>
-      <c r="F12" s="2">
-        <v>110415</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13351,15 +13071,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13367,10 +13090,10 @@
         <v>102</v>
       </c>
       <c r="B2">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13378,10 +13101,10 @@
         <v>201</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13389,10 +13112,10 @@
         <v>400</v>
       </c>
       <c r="B4">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13400,10 +13123,10 @@
         <v>800</v>
       </c>
       <c r="B5">
-        <v>663</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13411,10 +13134,10 @@
         <v>1601</v>
       </c>
       <c r="B6">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13422,10 +13145,10 @@
         <v>3201</v>
       </c>
       <c r="B7">
-        <v>2920</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13433,10 +13156,10 @@
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>6103</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13444,10 +13167,10 @@
         <v>12802</v>
       </c>
       <c r="B9">
-        <v>8576</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13455,10 +13178,10 @@
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>21943</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13466,10 +13189,10 @@
         <v>51202</v>
       </c>
       <c r="B11">
-        <v>49414</v>
+        <v>299</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13477,10 +13200,10 @@
         <v>102401</v>
       </c>
       <c r="B12">
-        <v>96999</v>
+        <v>616</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13488,7 +13211,7 @@
         <v>204800</v>
       </c>
       <c r="B13">
-        <v>265377</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -13502,15 +13225,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13518,10 +13241,10 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13529,10 +13252,10 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13540,10 +13263,10 @@
         <v>400</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13551,10 +13274,10 @@
         <v>800</v>
       </c>
       <c r="B5">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13562,10 +13285,10 @@
         <v>1600</v>
       </c>
       <c r="B6">
-        <v>886</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13573,10 +13296,10 @@
         <v>3200</v>
       </c>
       <c r="B7">
-        <v>1809</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13584,10 +13307,10 @@
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>4219</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13595,10 +13318,10 @@
         <v>12800</v>
       </c>
       <c r="B9">
-        <v>7652</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13606,10 +13329,10 @@
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>16759</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13617,10 +13340,10 @@
         <v>51200</v>
       </c>
       <c r="B11">
-        <v>41673</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13628,10 +13351,10 @@
         <v>102400</v>
       </c>
       <c r="B12">
-        <v>108181</v>
+        <v>691</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13639,10 +13362,10 @@
         <v>204800</v>
       </c>
       <c r="B13">
-        <v>347403</v>
+        <v>1284</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13656,15 +13379,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13672,10 +13395,10 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13683,10 +13406,10 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13694,10 +13417,10 @@
         <v>400</v>
       </c>
       <c r="B4">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13705,10 +13428,10 @@
         <v>800</v>
       </c>
       <c r="B5">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13716,10 +13439,10 @@
         <v>1600</v>
       </c>
       <c r="B6">
-        <v>1434</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13727,10 +13450,10 @@
         <v>3200</v>
       </c>
       <c r="B7">
-        <v>2350</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13738,10 +13461,10 @@
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>4220</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13749,10 +13472,10 @@
         <v>12800</v>
       </c>
       <c r="B9">
-        <v>8593</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13760,10 +13483,10 @@
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>22026</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13771,10 +13494,10 @@
         <v>51200</v>
       </c>
       <c r="B11">
-        <v>56580</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13782,10 +13505,10 @@
         <v>102400</v>
       </c>
       <c r="B12">
-        <v>131359</v>
+        <v>802</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13793,10 +13516,10 @@
         <v>204800</v>
       </c>
       <c r="B13">
-        <v>960431</v>
+        <v>1539</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13822,10 +13545,10 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13924,7 +13647,7 @@
         <v>56560</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13935,7 +13658,7 @@
         <v>132837</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13946,7 +13669,7 @@
         <v>294681</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13957,47 +13680,47 @@
         <v>710273</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14010,8 +13733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14021,8 +13744,8 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -14030,7 +13753,7 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -14078,7 +13801,7 @@
         <v>1600</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -14090,7 +13813,7 @@
         <v>3200</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -14102,7 +13825,7 @@
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -14114,7 +13837,7 @@
         <v>12800</v>
       </c>
       <c r="B9">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -14126,7 +13849,7 @@
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -14138,7 +13861,7 @@
         <v>51200</v>
       </c>
       <c r="B11">
-        <v>1605</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -14149,11 +13872,8 @@
       <c r="A12">
         <v>102400</v>
       </c>
-      <c r="B12" s="2">
-        <v>3065</v>
-      </c>
-      <c r="C12">
-        <v>7713</v>
+      <c r="B12">
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -14162,11 +13882,8 @@
       <c r="A13">
         <v>204800</v>
       </c>
-      <c r="B13" s="2">
-        <v>4583</v>
-      </c>
-      <c r="C13">
-        <v>30923</v>
+      <c r="B13">
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
